--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/98.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/98.xlsx
@@ -479,13 +479,13 @@
         <v>-8.44652290927829</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.69278756764213</v>
+        <v>-10.69342909048138</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.034199449974354</v>
+        <v>-4.078634725819172</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.77297828143503</v>
+        <v>-6.714809179909241</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-7.407512997645443</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.05040381976388</v>
+        <v>-11.0502205275241</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.080415279005647</v>
+        <v>-4.133583120845897</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.782417831783915</v>
+        <v>-6.732549250259781</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-6.189747962158019</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.88454061841593</v>
+        <v>-11.8860986024541</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.829632218072384</v>
+        <v>-3.876332462308821</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.615648078186008</v>
+        <v>-6.565674758239139</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.961915744553742</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.73537010319118</v>
+        <v>-12.73076161259089</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.923778967807237</v>
+        <v>-3.983204930405831</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.957003690178332</v>
+        <v>-6.899973618999773</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.731738184130846</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.44776157771802</v>
+        <v>-13.43690805866223</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.677381828325952</v>
+        <v>-3.735197437675014</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.520820528703386</v>
+        <v>-6.471907685286697</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.554165386901206</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.13827581419634</v>
+        <v>-14.12668912618141</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.734477361018719</v>
+        <v>-3.798799844880119</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.693233064826077</v>
+        <v>-6.645197405699784</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-1.439757996135285</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.7522131713534</v>
+        <v>-14.73428980876308</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.555217550509806</v>
+        <v>-3.612705852287825</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.385472301925622</v>
+        <v>-6.352322591130371</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.4037679174222728</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.66491687935865</v>
+        <v>-15.64555336345574</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.400034484926827</v>
+        <v>-3.459617555159522</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.177343963650703</v>
+        <v>-6.163348291912897</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.5596884261043034</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.3165338840942</v>
+        <v>-16.29689542983161</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.390948426754669</v>
+        <v>-3.454537741656933</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.741907063437735</v>
+        <v>-5.723826593213312</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>1.454651569964607</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.84815993328533</v>
+        <v>-16.81541608387817</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.242953035431797</v>
+        <v>-3.301331613803054</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.508798611340803</v>
+        <v>-5.488911403324221</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>2.29964277929619</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.47369707076016</v>
+        <v>-17.44512966595951</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.360809945613016</v>
+        <v>-3.409303835338769</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.912025263209245</v>
+        <v>-4.891156132479534</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>3.108972307497705</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.36928913895127</v>
+        <v>-18.34415191749515</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.139523842982161</v>
+        <v>-3.18903893232957</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.266640194626358</v>
+        <v>-4.248206232225209</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>3.886326682320741</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.10180348294584</v>
+        <v>-19.08656404243807</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.022936886176591</v>
+        <v>-3.073093498363244</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.702636880507642</v>
+        <v>-3.668976569901564</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>4.630742999821893</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.86081664789207</v>
+        <v>-19.83493316517398</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.949986574742493</v>
+        <v>-3.002722370588966</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.105667147833458</v>
+        <v>-3.072753098489359</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>5.333595725141759</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.71624153096477</v>
+        <v>-20.68004131360739</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.945037684268321</v>
+        <v>-3.005589584911304</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.495487281591973</v>
+        <v>-2.4463911459355</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>5.973785614714561</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.4291959745138</v>
+        <v>-21.3900368967142</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.865789975167353</v>
+        <v>-2.926302598901811</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.075237452675408</v>
+        <v>-2.026651916829762</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>6.521656074055768</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.33561537715502</v>
+        <v>-22.29218820862902</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.771459933192717</v>
+        <v>-2.835455109483074</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.851175781842108</v>
+        <v>-1.812304734705023</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>6.950628166719782</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.17805269580873</v>
+        <v>-23.13347340463265</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.782810959756493</v>
+        <v>-2.841582307213002</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.376501250012487</v>
+        <v>-1.32266570072731</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>7.237289053591496</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.97892195293996</v>
+        <v>-23.93782521431978</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.559613380910747</v>
+        <v>-2.61606739076427</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.143078582647353</v>
+        <v>-1.098198168505916</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>7.367070835229748</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.42841998640494</v>
+        <v>-24.38153644992871</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.398800625105826</v>
+        <v>-2.452662358996687</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.752522096575823</v>
+        <v>-0.7072358210462926</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>7.339504352649305</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.09117854085879</v>
+        <v>-25.04481869649624</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.186718411372705</v>
+        <v>-2.232790225072739</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6097374417839585</v>
+        <v>-0.5846525895392114</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>7.168672981962535</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.66107339125629</v>
+        <v>-25.61625843862906</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.181324382601914</v>
+        <v>-2.226401181285977</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2318019356518521</v>
+        <v>-0.1936378728682206</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>6.875494076512783</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.09953461342569</v>
+        <v>-26.05520407600361</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.125027480382492</v>
+        <v>-2.163112989349073</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2754254887204834</v>
+        <v>-0.2435588236037221</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>6.489964479258227</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.37537634199802</v>
+        <v>-26.33058757397647</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.776366363404485</v>
+        <v>-1.812461842339124</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2570700801363834</v>
+        <v>-0.2291572904778235</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>6.045466084229783</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.29204383441043</v>
+        <v>-26.24449259048928</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.674599893415748</v>
+        <v>-1.703717174935747</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.4165997902628156</v>
+        <v>-0.3891321389008743</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>5.570955669912229</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.21009911092407</v>
+        <v>-26.1475440879463</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.747942973935098</v>
+        <v>-1.775109502331679</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3774668970688964</v>
+        <v>-0.3612455338479977</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>5.087785079643796</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.37910764830791</v>
+        <v>-26.32702646760352</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.465136140250973</v>
+        <v>-1.492656160824281</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7128131420568679</v>
+        <v>-0.6989745779531634</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>4.608384076556618</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.29269844955252</v>
+        <v>-26.22825813496554</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.374314835437919</v>
+        <v>-1.395144689259105</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7863918840273684</v>
+        <v>-0.7765333799875487</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>4.137046394698101</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.10663064156591</v>
+        <v>-26.04836989392023</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.453981498229822</v>
+        <v>-1.474549505994174</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9286266620998804</v>
+        <v>-0.9216222800795569</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>3.670508278485221</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.76994898168808</v>
+        <v>-25.71383537170844</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.366446361430042</v>
+        <v>-1.385652769698854</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.412269421376083</v>
+        <v>-1.409114176391227</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>3.210400738394247</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.78533243752711</v>
+        <v>-25.72255484540103</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.198040069976919</v>
+        <v>-1.213790110295516</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.704358697774992</v>
+        <v>-1.693478994113517</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.76032169357703</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.43529662875072</v>
+        <v>-25.37529460482709</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.168019419560842</v>
+        <v>-1.180574937986057</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.205021450745438</v>
+        <v>-2.190986502099108</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.326283683075134</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.88809073917794</v>
+        <v>-24.84006817235448</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.188194658239941</v>
+        <v>-1.197071239566632</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.310427580924175</v>
+        <v>-2.30060835379288</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.916737076998545</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.47296000067249</v>
+        <v>-24.41809015946281</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.3555142885572</v>
+        <v>-1.363264931839502</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.522247948600461</v>
+        <v>-2.521082733647547</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.542562279714269</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.82436731789338</v>
+        <v>-23.77430235182662</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.354859673415114</v>
+        <v>-1.363120916508243</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.715699815389805</v>
+        <v>-2.724825150470488</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.210547019575875</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.06510539919316</v>
+        <v>-23.01886338555618</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.334854634672957</v>
+        <v>-1.339724971330079</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.845837305636562</v>
+        <v>-2.843559244942102</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9228506917153332</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.68328147911706</v>
+        <v>-22.64324521702706</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.411143483331695</v>
+        <v>-1.418134773049176</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.156530744373564</v>
+        <v>-3.1480076552236</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6804798244175535</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.04309405476234</v>
+        <v>-21.98796236749583</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.323647623440439</v>
+        <v>-1.336739926282165</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.385017613567367</v>
+        <v>-3.374897263470713</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.480608816982316</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.55522248166826</v>
+        <v>-21.50031336355006</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.492027730287878</v>
+        <v>-1.506534001836511</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.616227681752249</v>
+        <v>-3.606015685535703</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3154992059010314</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.10381297198839</v>
+        <v>-21.07816515072144</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.405841100680796</v>
+        <v>-1.427692154123636</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.619592403582573</v>
+        <v>-3.61160609884912</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.1746434222473725</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.27488690986734</v>
+        <v>-20.226772696924</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.132107232865987</v>
+        <v>-1.156537469968648</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.729227347579187</v>
+        <v>-3.716449260005662</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.05022613233933037</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.45650015153388</v>
+        <v>-19.42612600894108</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.140028076085231</v>
+        <v>-1.16322763672077</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.868843665083354</v>
+        <v>-3.85819962287303</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.06563867801604976</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.03117050911473</v>
+        <v>-18.99883252109567</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.160910299117784</v>
+        <v>-1.18757932000638</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.094149104686617</v>
+        <v>-4.080598571245432</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.1806388571686656</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.54497475078439</v>
+        <v>-18.5221679592341</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.149952041639259</v>
+        <v>-1.175351109152208</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.20741061657039</v>
+        <v>-4.19815435846129</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.3014120965895103</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.09246548766581</v>
+        <v>-18.08073478431963</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.113843470401779</v>
+        <v>-1.138483184349907</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.345900996030168</v>
+        <v>-4.347000749468873</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.4324926514880143</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.32921041659887</v>
+        <v>-17.30940176239934</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.206955928212135</v>
+        <v>-1.23604702512645</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.651108759876487</v>
+        <v>-4.644182931673213</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.5779406731227025</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.48331672999495</v>
+        <v>-16.45900432361786</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.132342894317138</v>
+        <v>-1.159457053502353</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.603099285355877</v>
+        <v>-4.60486674623951</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.7392815258304722</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.85453270141537</v>
+        <v>-15.84756759630357</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.080589021183795</v>
+        <v>-1.118609068636167</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.831703985275256</v>
+        <v>-4.826715817892558</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.9147575388440251</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.96936210628627</v>
+        <v>-14.95023425183451</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.037960483131135</v>
+        <v>-1.070167548121781</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.954535970536329</v>
+        <v>-4.953514770914675</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-1.101376398456742</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.17609947710609</v>
+        <v>-14.1620776207626</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.038497267547646</v>
+        <v>-1.069814055945054</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.137527087355135</v>
+        <v>-5.133285181234416</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-1.296136247689502</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.45793429702604</v>
+        <v>-13.42563558591551</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9850675796505615</v>
+        <v>-1.018544598016855</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.036768724685211</v>
+        <v>-5.028219450929564</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-1.494209670486651</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.76012764786489</v>
+        <v>-12.73180899681823</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9812839041293027</v>
+        <v>-1.019474151518618</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.117129279527726</v>
+        <v>-5.110255820535819</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.689991570777502</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.39608307504785</v>
+        <v>-12.37160046873382</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.178414708017172</v>
+        <v>-1.215753955721775</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.287132831927539</v>
+        <v>-5.278622835080417</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-1.880999620547758</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.71991800248407</v>
+        <v>-11.70370973156601</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.267664936489219</v>
+        <v>-1.306981121922922</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.767044284893849</v>
+        <v>-5.76136222546054</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.0665476658277</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.29676168233664</v>
+        <v>-11.27970241173387</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.282145023432168</v>
+        <v>-1.323896377194432</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.900193004794204</v>
+        <v>-5.895348852742765</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.245202537095177</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.52322915353894</v>
+        <v>-10.5084086667221</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.270977289108175</v>
+        <v>-1.313265427286951</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.355713497566379</v>
+        <v>-6.348133054221019</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-2.412743120755232</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.05007332883896</v>
+        <v>-10.02254021596281</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.473711598612303</v>
+        <v>-1.519717950798129</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.198762971099767</v>
+        <v>-6.184963683904588</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-2.564778059457297</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.484368015350816</v>
+        <v>-9.465790037618406</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.46260932580252</v>
+        <v>-1.507005324738813</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.422903195750117</v>
+        <v>-6.407166247734362</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-2.695463600891469</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.194779368794677</v>
+        <v>-9.172221330998383</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.540691819950574</v>
+        <v>-1.582128958444637</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.303723962981884</v>
+        <v>-6.283365432063</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-2.799980823915424</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.560326373084632</v>
+        <v>-8.525343739891539</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.625058619462657</v>
+        <v>-1.673447770765676</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.716733748426975</v>
+        <v>-6.709663904892443</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-2.875370705046276</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.986556201045986</v>
+        <v>-7.949766830060736</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.540272866259639</v>
+        <v>-1.5830585119464</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.582066321396981</v>
+        <v>-6.570178510416693</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-2.920366805233728</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.524659756789891</v>
+        <v>-7.490986353880971</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.531854515532409</v>
+        <v>-1.582993050432191</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.647069605006151</v>
+        <v>-6.630939887905145</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.934898934377884</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.104697958535843</v>
+        <v>-7.059555698337572</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.673185924708842</v>
+        <v>-1.721915475885746</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.824077539426288</v>
+        <v>-6.810906682767511</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.920954187539226</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.675571548292589</v>
+        <v>-6.631803979892698</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.556795352445897</v>
+        <v>-1.603233750625499</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.005261918452934</v>
+        <v>-7.004777503247791</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.883290220725289</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.436270436951519</v>
+        <v>-6.3971375437576</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.714819447745531</v>
+        <v>-1.758194247060169</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.035177830446278</v>
+        <v>-7.030242032274947</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.826066923601359</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.299966472066309</v>
+        <v>-6.25415650442311</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.705681020362006</v>
+        <v>-1.748532127562975</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.08851587222347</v>
+        <v>-7.078853752726276</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.754800473984012</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.024569881790601</v>
+        <v>-5.978249314336574</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.63274380123075</v>
+        <v>-1.664545004833303</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.047484595117501</v>
+        <v>-7.045180349817357</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.674839544029274</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.928014148332871</v>
+        <v>-5.878132474505895</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.915249511949515</v>
+        <v>-1.952510205837068</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.083501520235089</v>
+        <v>-7.085373719541456</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.59036338206963</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.823904156135466</v>
+        <v>-5.767633438521727</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.86280174676556</v>
+        <v>-1.896331134343221</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.82258501690233</v>
+        <v>-6.821380525040891</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.50192430144451</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.560225176903103</v>
+        <v>-5.500563552853357</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.87599878803002</v>
+        <v>-1.907407222547321</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.72981295896586</v>
+        <v>-6.733897757452478</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.407937978624902</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.646464175721553</v>
+        <v>-5.578528216275836</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.957013958014621</v>
+        <v>-1.988291469503505</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.548707133756262</v>
+        <v>-6.557583715082953</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.303861495071132</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.718157626082845</v>
+        <v>-5.649972912883135</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.044391987180301</v>
+        <v>-2.075185083464041</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.38166244179868</v>
+        <v>-6.388928669875837</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.181977696305246</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.921494181517692</v>
+        <v>-5.856621820936939</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.905535023240954</v>
+        <v>-1.935909165833759</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.284360447078972</v>
+        <v>-6.302728947965913</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.034365040418315</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.071427233661139</v>
+        <v>-6.001056105886861</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.160298144238102</v>
+        <v>-2.182528874463353</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.139206085472755</v>
+        <v>-6.15593804850448</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.854824156002238</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.549872348709177</v>
+        <v>-6.478414559799035</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.145621672752527</v>
+        <v>-2.17522336947767</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.906215464101398</v>
+        <v>-5.929087717165893</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.637268313223728</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.017712698455416</v>
+        <v>-6.956270521219195</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.196655469229575</v>
+        <v>-2.223808905323315</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.959828444238266</v>
+        <v>-5.97806602209679</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.377224860029186</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.502193365113489</v>
+        <v>-7.440018018918132</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.149195871428318</v>
+        <v>-2.180237721466051</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.588962781640691</v>
+        <v>-5.609530789405043</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.074720932404822</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.900984909672465</v>
+        <v>-7.844203592247899</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.178902306576195</v>
+        <v>-2.200426052447992</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.427744164447676</v>
+        <v>-5.448037233852352</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.7301546708462375</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.277048216498205</v>
+        <v>-8.215252547085257</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.446299499815608</v>
+        <v>-2.470467890861434</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.033259987523628</v>
+        <v>-5.051288088536685</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3447981334060371</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.186321741158922</v>
+        <v>-9.130810377110004</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.372288711851331</v>
+        <v>-2.398892271225718</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.030602250046758</v>
+        <v>-5.054469518127225</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.07613109129720985</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.924793082946481</v>
+        <v>-9.877333485145224</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.462350663099564</v>
+        <v>-2.489818314461505</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.860611789949787</v>
+        <v>-4.884269581184786</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.5221984270246193</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.68126634114141</v>
+        <v>-10.63794391103814</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.521881364120893</v>
+        <v>-2.535811574344489</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.53554300269257</v>
+        <v>-4.560928977902678</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.9821368335696707</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.81989082698349</v>
+        <v>-11.77363572104367</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.606248163632976</v>
+        <v>-2.625546218021679</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.431000964501388</v>
+        <v>-4.458429338954804</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.44235058998287</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.63503069421219</v>
+        <v>-12.59102746436115</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.749045910727681</v>
+        <v>-2.768291595905019</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.068200160454317</v>
+        <v>-4.099006349040899</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>1.885900111784466</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.66582697384981</v>
+        <v>-13.61733308412406</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.844593536866598</v>
+        <v>-2.862857299330806</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.746679387267208</v>
+        <v>-3.768229317744689</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>2.294956851905444</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.66410197322858</v>
+        <v>-14.61666856003301</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.878044370627209</v>
+        <v>-2.893925333974222</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.299315399165428</v>
+        <v>-3.32656048137906</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>2.652432774848935</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.03298078914809</v>
+        <v>-15.99566772604918</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.787406358053939</v>
+        <v>-2.811705672128182</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.048767999683316</v>
+        <v>-3.074939513063927</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>2.941429265342998</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.45374440122936</v>
+        <v>-17.40957097144138</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.022727409331123</v>
+        <v>-3.038307249712777</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.777416930985702</v>
+        <v>-2.798063492567104</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>3.146468820960344</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.92500502537117</v>
+        <v>-18.88231102580431</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.221769689433885</v>
+        <v>-3.240360759469135</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.649531316827721</v>
+        <v>-2.66521589563211</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>3.257103305069625</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.55576917503373</v>
+        <v>-20.52172918764524</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.4345719798233</v>
+        <v>-3.459460447525422</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.706587572611964</v>
+        <v>-2.715136846367611</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>3.267858831693414</v>
       </c>
       <c r="E92" t="n">
-        <v>-22.03091821311953</v>
+        <v>-21.99406338062007</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.440123116228192</v>
+        <v>-3.452390603990889</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.599793658332004</v>
+        <v>-2.615255667988083</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>3.178825766019763</v>
       </c>
       <c r="E93" t="n">
-        <v>-24.02240149067733</v>
+        <v>-23.98499678145852</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.660060711666348</v>
+        <v>-3.690369392744944</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.569563531070459</v>
+        <v>-2.581883388044523</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>2.99686790887408</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.19373373237191</v>
+        <v>-26.15958900656069</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.463715445948982</v>
+        <v>-3.490685589802938</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.728569549083222</v>
+        <v>-2.744646896972862</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>2.736894230909772</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.3679855576002</v>
+        <v>-28.33198172478545</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.969130704850976</v>
+        <v>-4.002620815520111</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.944736561302961</v>
+        <v>-2.95208134319717</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>2.417208229088861</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.40832930936332</v>
+        <v>-30.3642082487867</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.95019923494184</v>
+        <v>-3.983623884096766</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.2783153454073</v>
+        <v>-3.285712496512875</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>2.064345083602401</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.6731013164393</v>
+        <v>-32.62356004248621</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.102161594025755</v>
+        <v>-4.128306922800681</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.362525037285282</v>
+        <v>-3.36979126536244</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>1.701985598204409</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.17759338854729</v>
+        <v>-35.13390437396445</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.383619920517181</v>
+        <v>-4.416219754593079</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.78394008115476</v>
+        <v>-3.78583846506681</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>1.362608570117341</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.5791144988051</v>
+        <v>-37.53791302176219</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.236226775125029</v>
+        <v>-4.261638934940819</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.179733488362981</v>
+        <v>-4.188793361929456</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>1.062457708020627</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.2025894191387</v>
+        <v>-40.16369218739593</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.357225837988262</v>
+        <v>-4.385164812252505</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.430477272387718</v>
+        <v>-4.439524053651351</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.8365892089911023</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.64388494542968</v>
+        <v>-42.60717412826148</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.512395811268399</v>
+        <v>-4.540426431652534</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.943446790029387</v>
+        <v>-4.957311538738776</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.6772877655153438</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.00849885397666</v>
+        <v>-44.96854114570371</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.600598655513108</v>
+        <v>-4.626364307505624</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.144256531015782</v>
+        <v>-5.149022129250171</v>
       </c>
     </row>
   </sheetData>
